--- a/app/xxx/CC-148.xlsx
+++ b/app/xxx/CC-148.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openserver\OSPanel\domains\microstone\app\xxx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer\OSPanel\domains\microstone\app\xxx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BAD9C-B31F-4B71-BFD3-33D2B442C1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="21060" windowHeight="12915"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="21060" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист Заказа" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Номер п/п</t>
   </si>
@@ -48,28 +49,42 @@
     <t>Транзисторы, микросхемы</t>
   </si>
   <si>
-    <t>百世快递</t>
+    <t>YT4300198893811</t>
   </si>
   <si>
-    <t>YT4266058008795</t>
+    <t>YT4290756185060</t>
   </si>
   <si>
-    <t>70863219328773</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=525932280387&amp;_u=r25anr137dd9
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=541203878900&amp;_u=r25anr1315c3
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=552252909745&amp;_u=r25anr1334b4
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=565715257467&amp;_u=r25anr1374a8
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=525716675052&amp;_u=r25anr137463
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=556091421678&amp;_u=r25anr130f88
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=583146003909&amp;_u=r25anr13a994
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=537021422447&amp;_u=r25anr134200</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8dOGYzUN&amp;id=19209526941&amp;_u=d25anr13a509</t>
+    <t>4302995218093</t>
   </si>
   <si>
-    <t>YT4264316274956</t>
+    <t>韵达快递</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8dOGYzUN&amp;id=594892696428&amp;_u=d25anr13cf89</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=563224384959&amp;_u=r25anr13f07b</t>
+  </si>
+  <si>
+    <t>4302984310650</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=589608825579&amp;_u=r25anr13a992
+https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8ddsCJAJ&amp;id=19772401654&amp;_u=r25anr1344b3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -291,9 +306,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Гиперссылка 2" xfId="2"/>
+    <cellStyle name="Гиперссылка 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -328,7 +343,7 @@
         <xdr:cNvPr id="1025" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -373,7 +388,7 @@
         <xdr:cNvPr id="1026" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,7 +428,7 @@
         <xdr:cNvPr id="4" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +468,7 @@
         <xdr:cNvPr id="5" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,7 +508,7 @@
         <xdr:cNvPr id="6" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,7 +548,7 @@
         <xdr:cNvPr id="7" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +588,7 @@
         <xdr:cNvPr id="8" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -613,7 +628,7 @@
         <xdr:cNvPr id="9" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -719,6 +734,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -754,6 +786,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -929,14 +978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1010,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -1024,19 +1073,19 @@
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="81.75" customHeight="1">
+    <row r="4" spans="1:13" ht="132.75" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="12"/>
@@ -1056,10 +1105,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
@@ -1075,9 +1124,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
@@ -3274,18 +3329,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ОШИБКА" error="В данной ячейки можно вводить только цифры" sqref="I3:I13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ОШИБКА" error="В данной ячейки можно вводить только цифры" sqref="I3:I13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{42E64036-993D-49EC-901F-12FA07FEA586}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="27" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>